--- a/Sonic.xlsx
+++ b/Sonic.xlsx
@@ -15,32 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>acho que tô dando um tempo daqui, realmente tá meio tóxico pra mim ver certas coisas (o famoso gatilho), fico no “continuar aqui pra acompanhar sobre taylor e sonic” x “sair pra restaurar minha visão do mundo”, acho que vou criar outro tt só pra a primeira opção, eh isto</t>
-  </si>
-  <si>
-    <t>ah velho eu não acredito que o filme do sonic tem a cena do mercúrio</t>
-  </si>
-  <si>
-    <t>sonic la película
-final alternativo (spoilers) https://t.co/evtln8f0gt</t>
-  </si>
-  <si>
-    <t>rt @daniie_gc: naco. https://t.co/pvdkkczmmz</t>
-  </si>
-  <si>
-    <t>@brazilianboomer pq twitter tem medo de um sonic no bone?</t>
-  </si>
-  <si>
-    <t>@leizao_lisboa @deivin_oficial @99leonardoponce kkkkkkkk chama o sonic</t>
-  </si>
-  <si>
-    <t>rt @1902breno: esses dias vi no cinema “parasita” que puta filme pqp, oscar merecido.
-sábado vi com meus irmãos “sonic”, achei que ia ser u…</t>
+    <t>essa versão do tema da star light zone pro sonic mania ficou do caralho (aliás, melhor zona de toda a série).
+https://t.co/d8lhxarnet</t>
+  </si>
+  <si>
+    <t>@funpark_ acho que eu vou jogar sonic rush</t>
+  </si>
+  <si>
+    <t>rt @powwhiteoficial: entaaao,eu assisti sonic o filme https://t.co/1vvhnhdplz</t>
   </si>
   <si>
     <t>rt @razzendres: 🍃metafisica do vento🍃
@@ -49,112 +36,73 @@
 sua existência começa fazer sentido…</t>
   </si>
   <si>
-    <t>as trilhas sonoras em todos os jogos do sonic são fodas, incrível.</t>
+    <t>@skylinevoid @allan0li_ baixe 'sonic: o filme'  
+dublado ou legendado na melhor qualidade em nosso site!
+site rápido, moderno e sem anúncios excessivos!
+confira: https://t.co/k4focx7197</t>
+  </si>
+  <si>
+    <t>@drontocore o sonic.exe ta de p4u duro na ultima thumb</t>
+  </si>
+  <si>
+    <t>rt @akillian: ⚠️atenção⚠️
+@ibukimiojo, furry fã de sonic, danganronpa e pokémon, está carente e procurando uma namorada pra trocar amor e…</t>
+  </si>
+  <si>
+    <t>@jguedex @artursouzaaaz calma, esse título de melhor do ano é do sonic</t>
   </si>
   <si>
     <t>@valerio_saick pack do pezinho do sonic</t>
   </si>
   <si>
-    <t>ta da vez que vejo essa foto só consigo lembrar de uma das melhores partes da minha infância brincando de sonic e que o parquinho da escola era uma nave espacial https://t.co/zi6cekadj1</t>
-  </si>
-  <si>
-    <t>@fifthnilha eu tambem viu sonic, eu vou ter que esperar um pouco, mas  to na ansia  a muito tempo  =]</t>
-  </si>
-  <si>
-    <t>@lukasrsrs desses jogos mais novos do sonic, poucos se salvam né</t>
-  </si>
-  <si>
-    <t>rt @alaidegabriel: manooo, como essas pessoas conseguem gosta e desgosta tão rápido assim? é algum vodu ou só empurra com a barriga msm? pq…</t>
-  </si>
-  <si>
-    <t>mano 
-            sai da minha mente
-faz favor 
-[insira imagem pixelada do sonic]</t>
-  </si>
-  <si>
-    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim
-gente retardada.
-mande currículo!</t>
-  </si>
-  <si>
-    <t>rt @ramosbrunow: esse filme do sonic é bem sessão da tarde (o que não quer dizer que é ruim)
-só o fato de ouvirem os fãs e mudarem o visua…</t>
-  </si>
-  <si>
-    <t>os cara acha que pra chupar buceta tem que saber fazer mortal com a língua e correr com ela que nem o sônic, mds ainda bem que nasci sapatao</t>
-  </si>
-  <si>
-    <t>sonic – o filme | cinco vezes que eu amei jim carrey https://t.co/rkrpfprfzm https://t.co/mqhzdrpmpf</t>
-  </si>
-  <si>
-    <t>@popyfriendbr era pra ser uma amizade, mas a fanbase de sonic faz o que ela quiser</t>
-  </si>
-  <si>
-    <t>geral chamando pra sonic dia 21, mas vou ficar em casa guardado 🥱👍🏼</t>
-  </si>
-  <si>
-    <t>pelada de meia tipo o sonic</t>
-  </si>
-  <si>
-    <t>tu é a barbie ou o sonic?
-cabelo durão penteado pra trás</t>
-  </si>
-  <si>
-    <t>do dia em que assistimos sonic, eu me diverti mais do que as crianças que estavam por lá 🤭 em sorocaba shopping https://t.co/k63rahgxk9</t>
-  </si>
-  <si>
-    <t>@allantercalivre @sonic_incel @cnnbrasil @tercalivre e a mamata, né?</t>
-  </si>
-  <si>
-    <t>rt @alexandre_xlr: ontem eu assisti ao filme do sonic: é um filme divertido e legal! só isso que tenho a dizer... https://t.co/alscvagrzk</t>
-  </si>
-  <si>
-    <t>@atravessare @capadefilme @conclusoesinesp sim são eles.</t>
-  </si>
-  <si>
-    <t>eu quero um tenis do sonic</t>
-  </si>
-  <si>
-    <t>hm queria ver sonic</t>
-  </si>
-  <si>
-    <t>vo assistir o sonic</t>
-  </si>
-  <si>
-    <t>@babixll @bagainho @bikkuriyuta @coordnated @pavanelas @dreamermei @raitorage @lepipinho @idrazzul @chereco @gazetheabyss @fulfaiters @foy3r pior que eu falei da outra sonic</t>
-  </si>
-  <si>
-    <t>sonic generations é o melhores jogo de sonic dos últimos tempos</t>
-  </si>
-  <si>
-    <t>@leehperes_ se sentindo igual ao sonic... pelada e de tênis</t>
-  </si>
-  <si>
-    <t>saiu um jogo novo do sonic 
-vou já jogar pra ver qual e</t>
-  </si>
-  <si>
-    <t>@allantercalivre @sonic_incel @cnnbrasil @tercalivre errata: onde de le liberdade, leia-se: mamata.</t>
-  </si>
-  <si>
-    <t>man se eu pinta meu cabelo de azul viro o sônic https://t.co/6lqcxoerkh https://t.co/4ivwq6g2lu</t>
-  </si>
-  <si>
-    <t>@_imrayssa eu tinha pensado em promare, mas achava que era um fandom só hwkdjdkjs "quem eh o ouriço em promare????"- 
-sobre sonic, só queria ver aquele filme lá</t>
-  </si>
-  <si>
-    <t>rt @omelete: james marsden voltaria para eventual sequência de sonic: o filme: "[faria] quantos filmes eles quisessem" https://t.co/mzvdsvu…</t>
-  </si>
-  <si>
-    <t>@belpetit to aqui só pra defender o filme do sonic</t>
+    <t>@brazilianboomer chapéu do sonic</t>
+  </si>
+  <si>
+    <t>@atlaspathfinder sonic / mario, pc / console, burguer king / mc donald's , ovo maltine / concorrência e rio / sp. já vi muitas discussões por coisas assim.</t>
+  </si>
+  <si>
+    <t>fodase eu vou falar: sonic runners tem meu render favorito do sonic "moderno https://t.co/sx2otnn81i</t>
+  </si>
+  <si>
+    <t>fui jogar só pra ver qual era esse sonic forces q entrou na psn e jushei d++++ kkkkkkk sou mt mongol</t>
+  </si>
+  <si>
+    <t>rt @strogonofada: sobre a freedom: muito feliz com meu set, uma galera falando que foi meu melhor set até hj, fui elogiada e mencionada por…</t>
+  </si>
+  <si>
+    <t>pelada e de tênis tipo sonic</t>
+  </si>
+  <si>
+    <t>e minha irmã que me deu um par de ingressos pra eu assistir com a gata o filme do sonic.
+tenkiverymuch mana</t>
+  </si>
+  <si>
+    <t>@silvazuao ela fez promoção do mario maker 2, super mario party, mario &amp;amp; sonic e, pasmem, yoshi crafted world, mas nada de mario odissey... lógica nintendo</t>
+  </si>
+  <si>
+    <t>@raul_drago vamos assistir sonic</t>
+  </si>
+  <si>
+    <t>@wdwendell @ellensi12185556 @onabuc0 @allantercalivre @sonic_incel @cnnbrasil @tercalivre verdade... eu venho ler para rir. é muita, muita ignorância. quase dá pena.</t>
+  </si>
+  <si>
+    <t>agr que baixei sonic pra assistir que eu não vou dormir msm</t>
+  </si>
+  <si>
+    <t>@armylilove1 3°melhor anime
+sonic x
+kkkk brincadeira</t>
+  </si>
+  <si>
+    <t>sonic fighters zerado e 100%.
+vou começar o sonic 4 agora
+https://t.co/mtxav6mpcj</t>
   </si>
   <si>
     <t>confira minha transmissão do meu playstation 4! #ps4live (sonic forces)  live at https://t.co/a4xbjewa9e</t>
   </si>
   <si>
-    <t>como assim o sonic nao dorme pelado de tenis???? https://t.co/3vreksebmf</t>
+    <t>parece um tênis que eu veria numa persona de sonic https://t.co/5ug9ajx3xm</t>
   </si>
   <si>
     <t>rt @tnhbdam: motivos p estudar:
@@ -163,715 +111,54 @@
 •vai todo mundo morre consequentemente o futuro de todo mundo…</t>
   </si>
   <si>
-    <t>23h50
-acabei de dar play no filme do sonic
-vamos lá</t>
-  </si>
-  <si>
-    <t>@robertocarlosfj se sonic 2006 não destruiu nada mais consegue https://t.co/gmzfhl6dal</t>
-  </si>
-  <si>
-    <t>@gusjaroski @lipaocigarro oakzoaksoaks
-"pelado e de tênis me sinto o sonic"</t>
-  </si>
-  <si>
-    <t>fui fazer meu stats do spotify e tá lá barões da pisadinha ao lado de sonic youth.</t>
-  </si>
-  <si>
-    <t>@brazilianboomer chapéu do sonic</t>
-  </si>
-  <si>
-    <t>eu só queria um sonic de aniversário</t>
-  </si>
-  <si>
-    <t>@hunterx_writer  obviamente que ajudai e no meu sonho a lilac tava namorando o tails do sonic
-e ela me perguntou o meu nome
-cara o esquisito é que ela me disse que esse era um universo invertido pois meu nome estava no universo delas como um personagen ficticio
-bizzaro</t>
-  </si>
-  <si>
-    <t>engraçado que quem e rapido e o sonic mais quem passou despercebido foi aves de rapina.</t>
-  </si>
-  <si>
-    <t>sim, vadia, é isso mesmo que você leu. eu sou trans:
-t - otakult(veja mob psycho 
-   imediatamente)
-r - quero fazer cosplay do ricardo  
-   milos :/
-a - agênero
-n - viciado em corrida naruto
-s - gamadão no sonic, aspirante 
-   de seiya e shonen trash</t>
-  </si>
-  <si>
-    <t>filme do sonic eh tudo d bom.</t>
-  </si>
-  <si>
-    <t>rt @r_luscas: até hj eu n vi sonic</t>
-  </si>
-  <si>
-    <t>como assim o filme do sonic estreou há 1 mês e já está disponível na net?!?!?!
-epa fodase não pode... epa sendo assim nem valia...</t>
-  </si>
-  <si>
-    <t>admiro quem tem coragem de discutir pessoalmente/virtualmente sem perder a paciência pq virtualmente eu mando a figurinha do sonic "tá bom faz silêncio aí agora"  e pessoalmente falto jantar na porrada</t>
-  </si>
-  <si>
-    <t>lembro como se fosse hoje. tava louco pra jogar com o sonic. https://t.co/dar8khg2pr</t>
-  </si>
-  <si>
-    <t>@netflixpt se tivesse alguns anéis com ele, este primo do sonic tinha resistido ao golpe</t>
-  </si>
-  <si>
-    <t>eu devo treinar pra corrida do sonic jogando sonic, assistindo alguém jogar sonic ou vendo o filme do sonic?</t>
-  </si>
-  <si>
-    <t>sonic para de correr anda mais devagar po favo</t>
-  </si>
-  <si>
-    <t>me tornei a própria imagem do sonic
-mano não me dirige a palavra não faz favor</t>
-  </si>
-  <si>
-    <t>@dudzmon eu tô ouvindo, pensando no filme do sonic
-"i, giorno giovanna, gotta go fast"</t>
-  </si>
-  <si>
-    <t>"jogue como uma mulher"
-&amp;gt;qual que pula?
-&amp;gt;não é jogo do mario? 
-&amp;gt;não põe jogo de guerra, credo.
-&amp;gt;passa essa fase pra mim? 
-&amp;gt;eu tenho medo desse jogo, põe outro mais bonitinho.
-&amp;gt;the sims eu sei jogar! 
-&amp;gt;esse controle tá ruim!
-&amp;gt;ah eu conheço esse aí! é o sonic né!? (era o crash)</t>
-  </si>
-  <si>
-    <t>pelado e de tênis igual o sonic https://t.co/htymypziaz</t>
-  </si>
-  <si>
-    <t>agr que baixei sonic pra assistir que eu não vou dormir msm</t>
-  </si>
-  <si>
-    <t>@arcsystemworksu dizzy  pliz https://t.co/q9bebjqx7k</t>
-  </si>
-  <si>
-    <t>esse filme do sonic ta perfeito
-foda-seeeeeeeeeeeeeeeeeeee</t>
-  </si>
-  <si>
-    <t>queria pintar meu cabelo inteiro de azul mas eu lembrei que em 2016 eu fiz isso e fiquei parecendo o sonic de chernobyl</t>
-  </si>
-  <si>
-    <t>fodase eu vou falar: sonic runners tem meu render favorito do sonic "moderno https://t.co/sx2otnn81i</t>
-  </si>
-  <si>
-    <t>rt @pincheotaku: sonic la película
-final alternativo (spoilers) https://t.co/evtln8f0gt</t>
-  </si>
-  <si>
-    <t>eu fui no cinema assistir sonic semana passada, não era o filme que eu queria ver, mas o filme é muito bom</t>
-  </si>
-  <si>
-    <t>@wdwendell @ellensi12185556 @onabuc0 @allantercalivre @sonic_incel @cnnbrasil @tercalivre verdade... eu venho ler para rir. é muita, muita ignorância. quase dá pena.</t>
-  </si>
-  <si>
-    <t>eu tava com muito medo de assistir sonic e me decepcionar, pq eu amo sonic
-e fiquei muito feliz! ainda mais com a aparição do tails no final ❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
-  </si>
-  <si>
-    <t>rt @_ld7x: boa noite venho por meio desse tweet e peço a ajuda de vocês para fazer chegar no @flamengo 
-minha prima faleceu hj após uma cir…</t>
-  </si>
-  <si>
-    <t>e eu q fui me arrumar p trabalhar, sai do banho, coloquei q cueca, fiquei na cama mechemos no celular, olhei p tênis, e coloquei o tênis, tudo normal, do nada olho p cama e a calça do do meu lado, me senti o sonic agora</t>
-  </si>
-  <si>
-    <t>games e nostalgia,aqui está um programa para você… 99vidas 402 – sonic mania episódio de 99vidas - nostalgia e videogames
-https://t.co/1vrypuozcn</t>
-  </si>
-  <si>
-    <t>acordei cedo pra me me jogar sonic</t>
-  </si>
-  <si>
-    <t>manooo, como essas pessoas conseguem gosta e desgosta tão rápido assim? é algum vodu ou só empurra com a barriga msm? pq carai 6 são rápido; o sonic chega fica puto com vcs kkkkkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>saiu sonic na internet, vou madrugar</t>
-  </si>
-  <si>
-    <t>imagina o menino do sonic youth cantando no seu ouvidinho</t>
-  </si>
-  <si>
-    <t>obrigado senhor por mais um dia de vida, aprendi hoje a mexer com bucket tablet e que perdi tempo vendo ela, só pular sinceramente
-mexi no tinkercad dá pra programar os objetos para funcionar legalzinho
-troquei ideia com o sonic
-admiro o leonardo
-amo o hira
-amo a ana
-valeu deus</t>
+    <t>@shimefunghii hhhuahaushsuhsushaushsu nem dá, ela quer ver sonic
+orgulho 😎👍</t>
   </si>
   <si>
     <t>ontem eu assisti ao filme do sonic: é um filme divertido e legal! só isso que tenho a dizer... https://t.co/alscvagrzk</t>
   </si>
   <si>
-    <t>sonhava tanto em ser como o naruto pra crescer e ficar igual o shikamaru</t>
-  </si>
-  <si>
-    <t>pelado e de tenis me sinto o sonic</t>
-  </si>
-  <si>
-    <t>@godsakuragi mas sonic forces também tem as mesmas descrições, com toooooooda certeza, não to sendo ironico, nunquisimo</t>
-  </si>
-  <si>
-    <t>@verbelcorno @drontocore manda ai caso eu precise. meu filho so comentou desse sonic.exe através de um amigo da escola. mas vai que ele esbarra com ele no roblox e tem o piripaque do chaves 😲</t>
-  </si>
-  <si>
-    <t>@raul_drago vamos assistir sonic</t>
-  </si>
-  <si>
-    <t>esses dias vi no cinema “parasita” que puta filme pqp, oscar merecido.
-sábado vi com meus irmãos “sonic”, achei que ia ser uma merda mas é legalzinho.
-e domingo vi “o homem invisível”, outro filme bem maneiro de suspense.
-sequência boa no cinema</t>
-  </si>
-  <si>
-    <t>zootopia deu uma cagada gigantesca de fazer sucesso mesmo sendo uma animação lançada em março. onward é um fracasso de bilheteria. e não é nem culpa do coronavírus, sonic e o homem invisível continuam bombando!</t>
-  </si>
-  <si>
-    <t>@ribeirmatheus sonic colors, generations e mania foram impecáveis... o resto joga no lixo q tá podre</t>
-  </si>
-  <si>
-    <t>já saiu sonic em 1080p https://t.co/lv9vi0mvdq</t>
-  </si>
-  <si>
-    <t>@otakuzinh0 se o naruto de costas com o sonic clássico</t>
-  </si>
-  <si>
-    <t>rt @jojoskeee: "jogue como uma mulher"
-&amp;gt;qual que pula?
-&amp;gt;não é jogo do mario? 
-&amp;gt;não põe jogo de guerra, credo.
-&amp;gt;passa essa fase pra mim? 
-&amp;gt;…</t>
-  </si>
-  <si>
-    <t>eu sonhei que era o sonic</t>
-  </si>
-  <si>
-    <t>sonic: salva os animais do avanço da industrialização
-mario: sacrifica e assassina animais para seu próprio bem
-é uma escolha moral https://t.co/asl1hg1cmj</t>
-  </si>
-  <si>
-    <t>rt @csmoviesbrazil: #top10 #bilheteria #filmes segunda:
-1. dois irmãos: uma jornada fantástica
-2. sonic - o filme
-3. o homem invisível
-4. m…</t>
-  </si>
-  <si>
-    <t>https://t.co/pl9ratlt36
-to jogando sonic https://t.co/cg8dlhaffe</t>
-  </si>
-  <si>
-    <t>amei o filme do sonic. muito lindinho! ♥️</t>
-  </si>
-  <si>
-    <t>sem trapacear: você está estrelando num filme com o último personagem salvo na sua galeria e a última música que vc ouviu é o título 
-sonic: sunflower https://t.co/9fp6nntlol https://t.co/y21uex92zp https://t.co/z1jpf5ntgq</t>
-  </si>
-  <si>
-    <t>sonic: ator assinou pré-contratos para possíveis sequências https://t.co/kvjknbgwe5 https://t.co/eumzqkana2</t>
-  </si>
-  <si>
-    <t>1917 e sonic disponíveis https://t.co/tyoaao1iow</t>
-  </si>
-  <si>
-    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim. gente esquizofrênica e incompetente.</t>
-  </si>
-  <si>
-    <t>ow ow ow, quem ai anima de assistir sonic?</t>
-  </si>
-  <si>
-    <t>ainda bem que refizeram o visual do sonic, pq ficou lindo https://t.co/xupjjnqlvi</t>
-  </si>
-  <si>
-    <t>assistino o filme do sonic pra almoçar
-o auge</t>
-  </si>
-  <si>
-    <t>namoral filme do sonic é daora kkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>meu deus. acabo de descobrir que sonic é um ouriço! 😳 https://t.co/gfqficy382</t>
-  </si>
-  <si>
-    <t>e minha irmã que me deu um par de ingressos pra eu assistir com a gata o filme do sonic.
-tenkiverymuch mana</t>
-  </si>
-  <si>
-    <t>dei play no novo sonic, seja o que deus quiser</t>
-  </si>
-  <si>
-    <t>@brazilianboomer boné do sonic?</t>
-  </si>
-  <si>
-    <t>@mr_fujimaster entendi... eu não curto muito o gameplay do clássico nesses novos aí, mas do sonic moderno com o avatar me chamou a atenção. comprei forces numa oferta, quando tiver tempo, vou dar uma chance.</t>
-  </si>
-  <si>
-    <t>sonic species&amp;gt;&amp;gt;&amp;gt;&amp;gt;&amp;gt;&amp;gt; rei da porra toda 😵🚣</t>
-  </si>
-  <si>
-    <t>assisti sonic e achei maneiro, nostalgia pura pra galera dos 90s</t>
-  </si>
-  <si>
-    <t>vou escrever “pelado e de tênis me sinto o sônic”</t>
-  </si>
-  <si>
-    <t>sonic é muito bom</t>
-  </si>
-  <si>
-    <t>quero ir assistir sonic</t>
-  </si>
-  <si>
-    <t>o ônibus deu uma freada que a mulher fez igual ao sonic agora kkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>não acredito que fizeram referência ao sanic no filme do sonic mlhr filme da década</t>
-  </si>
-  <si>
-    <t>@sznowbaz do gay bombeiro é promare do gay ouriço é sonic</t>
-  </si>
-  <si>
-    <t>confira minha transmissão do meu playstation 4! #ps4live (sonic forces)  live at https://t.co/euxpjv5s2s</t>
-  </si>
-  <si>
-    <t>rt @akillian: ⚠️atenção⚠️
-@ibukimiojo, furry fã de sonic, danganronpa e pokémon, está carente e procurando uma namorada pra trocar amor e…</t>
-  </si>
-  <si>
-    <t>rt @maxcachorrao_: evite o máximo depender de alguém...</t>
-  </si>
-  <si>
-    <t>nunca tinha visto o sonic sem os tênis https://t.co/elbwqyxlwh</t>
-  </si>
-  <si>
-    <t>chorei em sonic x na parte final da cosmea
-chorei no final do capítulo 4 de sally face
-chorei em twdg quando o lee morreu e a clem foi mordida
-acho que é só wkfkeke</t>
-  </si>
-  <si>
-    <t>lembram que o sonic boom quase destruiu o sonic ? https://t.co/e6bjhjykfo</t>
-  </si>
-  <si>
-    <t>gosto do canal do @fiaspo  porque além de falar curiosidades sobre games, é bonito e usa camisas do sonic 🥰</t>
-  </si>
-  <si>
-    <t>vou pro cinema com o enzinho ver sonic dnv 💖</t>
-  </si>
-  <si>
-    <t>já zerei o sonic 😭</t>
-  </si>
-  <si>
-    <t>@mintyth 😢s a d😢
-na verdade, o sonic é praticamente o forever alone na terra https://t.co/tridrbxdgw</t>
-  </si>
-  <si>
-    <t>tô viajando vendo sonic com meu irmão kkkk</t>
-  </si>
-  <si>
-    <t>10 de março e nenhum fela da puta de amigx me convidou pra assistir o filme do sonic</t>
-  </si>
-  <si>
-    <t>até agora já assisti:
-aves de rapina
-sonic
-dois irmãos</t>
-  </si>
-  <si>
-    <t>impossível só ter sonic dublado no cinema</t>
-  </si>
-  <si>
-    <t>sonic: ator assinou pré-contratos para possíveis sequências https://t.co/ekea9ryuhe https://t.co/cnd1s3ohni</t>
-  </si>
-  <si>
-    <t>vou no cinema hoje ver sonic nem que eu tenha que ir sozinho</t>
-  </si>
-  <si>
-    <t>só com muita boa vontade pra achar esse filme do sonic qualquer coisa mais que 'aceitável'</t>
-  </si>
-  <si>
-    <t>o filme do sonic é ruim mas eu quero muito que tenha continuação</t>
-  </si>
-  <si>
-    <t>queria ir no cinema hoje, ver os bad boy ou sonic</t>
-  </si>
-  <si>
-    <t>bilheteria | ‘dois irmãos’ desbanca ‘sonic’ e lidera na semana de estreia https://t.co/ehy4gzwbue</t>
-  </si>
-  <si>
-    <t>rt @morenaabjs: algumas pessoas estão com raiva de você, pq vc não tá sofrendo da forma como elas esperavam. deus vai continuar desapontand…</t>
-  </si>
-  <si>
-    <t>sonic eh muito bom</t>
-  </si>
-  <si>
-    <t>@kakaxerataque sonic.exe tá danado demais</t>
-  </si>
-  <si>
-    <t>sonic e aves de rapina ou estudar</t>
-  </si>
-  <si>
-    <t>sonic descalço fodase https://t.co/sdqjqlojb3</t>
-  </si>
-  <si>
-    <t>cineminha de ontem com  eles.  #sonic https://t.co/vgr8dvf3li</t>
-  </si>
-  <si>
-    <t>queria voltar aos dias de quando eu só me preocupava em jogar jogos do sonic.</t>
-  </si>
-  <si>
-    <t>deu até vontade de jogar sonic de novo, um dia ainda baixo um emulador</t>
-  </si>
-  <si>
-    <t>assistir sonic ontem, filé demais o filme! 🤙🏼</t>
-  </si>
-  <si>
-    <t>@brazilianboomer é a cabeca do sonic no bone</t>
-  </si>
-  <si>
-    <t>vídeo sonic mlk pro lindo canal amigo jogar vamo foto meme fofa mds https://t.co/xp7hvrzksu</t>
-  </si>
-  <si>
-    <t>estou sendo cancelado só pq falei que a mulher parecia o sonic anorexo (melzinho) https://t.co/l8gofjlfao</t>
-  </si>
-  <si>
-    <t>klaus ok
-sonic ok
-bad boys agr? 
-a noite vai ser longa kk</t>
-  </si>
-  <si>
-    <t>@conversasq tá certo.</t>
-  </si>
-  <si>
-    <t>vo dormir pq amanha o sonic nao vai levantar 7h30 por mim</t>
-  </si>
-  <si>
-    <t>@joojsho @nartizilda sonic seria o cebolinha</t>
-  </si>
-  <si>
-    <t>@foy3r @zapotismo sonic anorexo depois da ceia</t>
-  </si>
-  <si>
-    <t>rt @kauelet: tão torcendo muito pela minha queda, mais quem me sustenta é deus</t>
-  </si>
-  <si>
-    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim, devem tá mudando de ramo e agora irão inaugurar um hospício!</t>
-  </si>
-  <si>
-    <t>amigos que entendem do universo sonic
-isso é um ship ou uma amizade linda? https://t.co/odpehs8vx4</t>
-  </si>
-  <si>
-    <t>rt @allan0li_: o filme do sonic é bom demais puta que pariuuuuuuuuuu</t>
-  </si>
-  <si>
-    <t>eu chorei no cinema hoje assistindo sonic. foda c</t>
-  </si>
-  <si>
-    <t>rt @fabibastos9: cada persoa ten un xogo que lle marcou na vida. "sonic adventure" foi o meu. este programa levoume de novo a miña infancia…</t>
-  </si>
-  <si>
-    <t>quando vai sair o filme do sonic nessa versão pra assistir? https://t.co/fqijtkqhlw</t>
-  </si>
-  <si>
-    <t>rt @valerio_saick: como assim o sonic nao dorme pelado de tenis????</t>
-  </si>
-  <si>
-    <t>fui jogar só pra ver qual era esse sonic forces q entrou na psn e jushei d++++ kkkkkkk sou mt mongol</t>
-  </si>
-  <si>
-    <t>aconteceu tanta coisa nesse março que esqueci de comentar o quanto o filme do sonic é bacana show massa dezao demais de bom</t>
-  </si>
-  <si>
-    <t>fui ver sonic hoje no cinema, mas dando 0 valor pro filme. no final eu ri horrores e chorei tbm, resumindo ganhou meu coração</t>
-  </si>
-  <si>
-    <t>@drontocore o sonic.exe ta de p4u duro na ultima thumb</t>
-  </si>
-  <si>
-    <t>@marcoan94689189 o único anime que eu dropei foi sonic x,mas hoje eu me arrependo,eu era um fanático pelo mario na época</t>
-  </si>
-  <si>
-    <t>@rillextriste ahh, tá explicado o ódio contra sonic, vc prefere um jogo mais fácil.</t>
-  </si>
-  <si>
-    <t>@xvthay que massa princesa sempre quis conhecer um parente do sonic</t>
-  </si>
-  <si>
-    <t>esse jogo do mario e sonic eu gostei da prova de surf.
-é a que eu mais jogo na demo.</t>
-  </si>
-  <si>
-    <t>@assoprafita mas poderia ser o poderoso sonic!!!</t>
-  </si>
-  <si>
-    <t>@brieelga caraí viado o pé do sonic</t>
-  </si>
-  <si>
-    <t>baixei emulador de mastersystem no celular de novo e tinha esquecido o tanto que sonic dele é difícil pra caralho.</t>
-  </si>
-  <si>
-    <t>muito legal o filme do sonic</t>
-  </si>
-  <si>
-    <t>na minha pira de sonic achei uma wiki que mostra os layouts dos mapas dos jogos. legal ver como no sonic 2 as fases chegam a ter 3 caminhos e no sonic 3 até 5 caminhos. level designs fodas!</t>
-  </si>
-  <si>
-    <t>@batwxng ele me levou hj mas nao tem  horaorio nessa bista de cinema 
-assisti sonic</t>
-  </si>
-  <si>
-    <t>rt @strogonofada: sobre a freedom: muito feliz com meu set, uma galera falando que foi meu melhor set até hj, fui elogiada e mencionada por…</t>
-  </si>
-  <si>
-    <t>star wars 8 é o sonic cd da nova trilogia pra mim. comecei detestando e hoje é um dos meus favoritos.</t>
-  </si>
-  <si>
-    <t>tá mais quem vai no cinema comigo assitir sonic?</t>
-  </si>
-  <si>
-    <t>@otaku_fudidu tomara que a madhouse entre com um acordo com a sega pra fazer um anime novo do sonic</t>
-  </si>
-  <si>
-    <t>@urahar0 ah, isso eu sei, pensei q tu tava se referindo ao sonic da imagem kkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>armarudas de mulher não funcionam - sonic 06 #19 https://t.co/wpnfjz6kgb via @youtube</t>
-  </si>
-  <si>
-    <t>rt @xcapim360: sonic fighters zerado e 100%.
-vou começar o sonic 4 agora
-https://t.co/mtxav6mpcj</t>
-  </si>
-  <si>
-    <t>rt @powwhiteoficial: entaaao,eu assisti sonic o filme https://t.co/1vvhnhdplz</t>
-  </si>
-  <si>
-    <t>@youryumiii @joow73177868 @caramelo_dog ok, vamo leva o sonic pro rolê</t>
-  </si>
-  <si>
-    <t>pelada e de tênis tipo sonic</t>
-  </si>
-  <si>
-    <t>icon galinho tico liro nome sonic header xadrez nick pi
-de alguma forma esses elementos traduzem mt bem minha personalidade</t>
-  </si>
-  <si>
-    <t>@funpark_ acho que eu vou jogar sonic rush</t>
-  </si>
-  <si>
-    <t>sonic riders fatos bobos que você não sabia https://t.co/75yag5uro6</t>
-  </si>
-  <si>
-    <t>@dinhoxcx tu acha que essas coisas aí é de agora? deste dos inícios dos animes tem isso,até no ova do sonic de 1996,e por sinal é bizarro esse ova</t>
-  </si>
-  <si>
-    <t>e arthur agora que só quer assistir o sonic</t>
-  </si>
-  <si>
-    <t>@galiodeus ontem , por exemplo ,eu fui assistir sonic com meu sobrinho e a minha mãe , pq ele tava querendo muito assistir e eu tbm , aí eu tive que explicar praticamente tudo pra minha mãe ,ou seja narrar pra ela , mas se a pessoa entende o filme eu não explico não</t>
-  </si>
-  <si>
-    <t>mas foi engraçado eu gostei do rolê ain sem contar a hora que eu chorei no filme sonic por que ele ganhou um quartinho afff me emocionei e elas rindo de mim</t>
-  </si>
-  <si>
-    <t>rt @demezilla: qq será que o sonic.exe tá fazendo uma hora dessas?</t>
-  </si>
-  <si>
-    <t>rt @anotherb7: pelado e se tênis me sinto o sonic</t>
-  </si>
-  <si>
-    <t>rt @oguizaum: pelado e de tênis igual o sonic</t>
-  </si>
-  <si>
-    <t>as vezes tudo que a gnt precisa é assistir sonic c mozao</t>
-  </si>
-  <si>
-    <t>@naluhh e diverti com o sônic no ps4 hahahahah, veio aquela faze das graminhas, bateu a nostalgia.</t>
-  </si>
-  <si>
-    <t>@lukeeh6 sonic puto esse é o tweet</t>
-  </si>
-  <si>
-    <t>@armylilove1 3°melhor anime
-sonic x
-kkkk brincadeira</t>
-  </si>
-  <si>
-    <t>ok, baby groot é fofo, olaf tbm, nossa agora baby yoda, n da mais, mds agora salcisha e scooby ? ok já chega
-mds baby sonic ????? 
-aaaaaaa tmnc sonic bb é a coisa mais fofa do muundooooooooooooo</t>
-  </si>
-  <si>
-    <t>ontem levei pedro no shopping, viu filme do sonic e dps pediu p lanchar no burguer king 😍</t>
-  </si>
-  <si>
-    <t>todo mundo que eu chamo pra assistir sonic diz: "não tô doido" https://t.co/jamnrbi0ff</t>
-  </si>
-  <si>
-    <t>por favor sonic.exe entre em minha casa e meta na minha esposa https://t.co/ozmdwmnu8v</t>
-  </si>
-  <si>
-    <t>rt @alcoolatraeusou: mó chato querer tomar uma cervejinha com a namorada e não ter namorada</t>
-  </si>
-  <si>
-    <t>coloquei o filme do sonic,</t>
-  </si>
-  <si>
-    <t>sonic tá massa</t>
-  </si>
-  <si>
-    <t>@strogonofada tu deitou braba, tem altas coisa boa do sonic massala vindo emmm</t>
-  </si>
-  <si>
-    <t>qq será que o sonic.exe tá fazendo uma hora dessas?</t>
-  </si>
-  <si>
-    <t>levei o  nenê assistir sonic https://t.co/iq805dmoph</t>
-  </si>
-  <si>
-    <t>@suamain1 @victorina_uwu shrek grávido do sonic pelo batman&amp;gt;&amp;gt;&amp;gt;soluço grávido do banguela</t>
-  </si>
-  <si>
-    <t>@timuniverses @baloype @kakaxerataque @marcelodovolei além de tudo o sonic.exe é talarico</t>
-  </si>
-  <si>
-    <t>mandei foto do trabalho p queiroz e ele mandou o sonic escrito cachorra</t>
-  </si>
-  <si>
-    <t>#top10 #bilheteria #filmes segunda:
-1. dois irmãos: uma jornada fantástica
-2. sonic - o filme
-3. o homem invisível
-4. maria e joão - o conto das bruxas
-5. dolittle
-6. aves de rapina
-7. minha mãe é uma peça 3
-8. a hora da morte
-9. bad boys para sempre
-10. parasita</t>
-  </si>
-  <si>
-    <t>rt @librarbykkk: acabei de assistir sonic o filme,mano q foda!!o sonic fez a dancinha do fortnite manooo</t>
-  </si>
-  <si>
-    <t>rt @jackiedeartemis: o público torna evidente a qualidade superior do filme sonic👌👌 em relação a parasite🤢. a atuação, efeitos especiais e…</t>
-  </si>
-  <si>
-    <t>não creio que eu tô a essa hora da manhã chorando com sonic por ele estar se sentindo sozinho... o auge meu pai</t>
-  </si>
-  <si>
-    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre bote diferente nisso rs</t>
-  </si>
-  <si>
-    <t>assisti sonic ontem, pqp filmao</t>
-  </si>
-  <si>
-    <t>@pimpolhayt tu já viu sonic x?</t>
-  </si>
-  <si>
-    <t>viajei assistindo sonic aq, mas é mt maneiro</t>
-  </si>
-  <si>
-    <t>bala no cuzao do sonic</t>
+    <t>sonic forces iniciado e encerrado no mesmo dia.
+um jogo bastante corrido,curto, sem desafio e com uma gameplay bem ruim. tendo apenas a trilha sonora como coisa boa.
+uma grande decepção para a franquia sonic.
+sonic mania merece mais a sua atenção do que este aqui.
+nota: 3/10. https://t.co/f61uoagsix</t>
+  </si>
+  <si>
+    <t>do dia em que assistimos sonic, eu me diverti mais do que as crianças que estavam por lá 🤭 em sorocaba shopping https://t.co/k63rahgxk9</t>
+  </si>
+  <si>
+    <t>pelado e de ultraboost me sinto o sonic</t>
+  </si>
+  <si>
+    <t>rt @israelzin_06: mano sônic tá o aço kkk
+só a camisa q estragou</t>
+  </si>
+  <si>
+    <t>uma janta do sonic acompanhando por um ventinho.</t>
+  </si>
+  <si>
+    <t>rt @aryelsereio: -- ray o esquilo voador --
+a minha parte na collab com o @neguimgoblin, esse formato ficou lindo cara!
+usando um #puma r…</t>
+  </si>
+  <si>
+    <t>rt @seriadores: ao léu 02: entre espinhos e triunfos com sonic, o filme https://t.co/4u5pizs9ax</t>
+  </si>
+  <si>
+    <t>originalmente um jogo do ligeirinho, algum malandro viu a oportunidade e apenas estampou o sonic no lugar do rato mexicano, e o resultado foi esse cartucho que enganou tanto moleque nos anos 90. na época eu joguei tanto o original quanto esse, então não me iludi. https://t.co/ir3n2zefxa</t>
+  </si>
+  <si>
+    <t>caralho, quando vc compara o rascunho com o desenho final, está super ao meu estilinho, só acho que a cor do super sonic poderia estar mais clara... https://t.co/fao7dwrvgd</t>
+  </si>
+  <si>
+    <t>sou critica formada de bisnaguinha.. comprei uma com o sonic na embalagem e é mt ruim nota 0 parem de fabricar</t>
+  </si>
+  <si>
+    <t>como assim o sonic nao dorme pelado de tenis???? https://t.co/3vreksebmf</t>
   </si>
   <si>
     <t>@canalcartuchito @srwilsoncca um mapa de cod e o sonic</t>
-  </si>
-  <si>
-    <t>esse filme do sonic é bem sessão da tarde (o que não quer dizer que é ruim)
-só o fato de ouvirem os fãs e mudarem o visual já demonstra uma boa vontade
-e o jim carrey de robotnik pra variar roubou a cena</t>
-  </si>
-  <si>
-    <t>adorei que sonic é um filme infantil e todos os homens que boicotaram aves de rapina gastaram dinheiro pra assistir no cinema com todas as outras crianças</t>
-  </si>
-  <si>
-    <t>@rafaaleitt transar parecendo o sonic?</t>
-  </si>
-  <si>
-    <t>@idrazzul @bagainho @babixll @bikkuriyuta @coordnated @pavanelas @dreamermei @raitorage @lepipinho @chereco @gazetheabyss @fulfaiters @foy3r é lá nossa culpa se ela parece com o sonic anorexo?? (que inclusive é apelidada como sonic anorexo)</t>
-  </si>
-  <si>
-    <t>tem muita gente falando que aves de rapina é melhor do que o sonic pela questão da comédia, mas vamos combinar que o humor do maior fracasso da dc consegue ser bem mais forçado e desnessário do que o do ouriço azul. #souteamsonic</t>
-  </si>
-  <si>
-    <t>andando pela casa tipo sonic invertido
-só de boné</t>
-  </si>
-  <si>
-    <t>@jv_trembala o famoso sonic</t>
-  </si>
-  <si>
-    <t>sonic forces gratuito esse mês na ps plus *----*</t>
-  </si>
-  <si>
-    <t>@_imrayssa gay ouriçojenfjskfjskjd eu quando era criança que shippava o sonic e o tails amy que lute</t>
-  </si>
-  <si>
-    <t>@ellensi12185556 @onabuc0 @allantercalivre @sonic_incel @cnnbrasil @tercalivre kkk, parecem crianças de 4 anos que estão comentando desenho animado, "esse vilão bobo que bater no meu herói, seu feio, bobão" vcs sao patéticos</t>
-  </si>
-  <si>
-    <t>eu encontrei o filme do sonic em full hd qualidade 10/10 e o mais estranho é que ainda tá passando nos cinemas e ainda tá em pré venda no itunes, amazon video, google play
-acho que vazou</t>
-  </si>
-  <si>
-    <t>na boa, esse povo tá muito chato!
-assiste esses dias x-men a fênix negra! não é o melhor filme dos x-men, mas gostei bastante... fui no cinema assistir sonic, e pô! filme divertido...
-não sei o que tá acontecendo, mas essas críticas tão rolando não.</t>
-  </si>
-  <si>
-    <t>@aryelsereio logo vc que não é de desenhar sonic...</t>
-  </si>
-  <si>
-    <t>como ainda não criaram um meme para aquele fiuza? com um sonic dizendo: pois é fera, parece que você é conhecido como ex-namorado da narcisa, logo, sua opinião não vale nada.</t>
-  </si>
-  <si>
-    <t>@fvsfabricio aliás, ver um horizon 0 dawn chegar no pc é quase a mesma sensação de ver o sonic saindo pra uma plataforma que não da sega ...</t>
-  </si>
-  <si>
-    <t>nossa, já saiu sonic em hd para download. vou baixar pra poder ver com o áudio original, já que só vi dublado no cinema.</t>
-  </si>
-  <si>
-    <t>@ellensi12185556 @onabuc0 @allantercalivre @sonic_incel @cnnbrasil @tercalivre sim, nesse momento o thanos aparece e rouba a joia da verdade... ( ta ficando bom, continuem...)</t>
-  </si>
-  <si>
-    <t>@gziks lego temático igual foi o do sonic</t>
-  </si>
-  <si>
-    <t>knuckles com o sonic no ova:"eu sou o knuckles o melhor amigo do sonic"
-knuckles com o sonic no jogo: https://t.co/wphqka6y4k</t>
-  </si>
-  <si>
-    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim, gente muito diferente... bem estúpida, imbecis, e tudo que os boslixo adoram</t>
-  </si>
-  <si>
-    <t>ainda não foi ver o ouriço mais rápido do mundo? para de ser lento e vem conferir sonic o filme, hoje no cine 14 bis!
-sessões 2d/dub às 15h30! https://t.co/vw0fkx94f6</t>
-  </si>
-  <si>
-    <t>toda vez que eu jogo sonic adventure eu tenho certeza que esse jogo nao foi feito pra dar certo</t>
-  </si>
-  <si>
-    <t>aqui vai uma dica\pensamento para os daoras e ao @damianizando e ao @rikeditor.  pq ao invés de chamar "corrida naruto" nós não falamos "corrida sonic" pq o sonic é quem corria com os braços para traz e é mais velho q o naruto. hehe &amp;gt;w&amp;lt; https://t.co/uu2iosjak7</t>
-  </si>
-  <si>
-    <t>@jguedex @artursouzaaaz calma, esse título de melhor do ano é do sonic</t>
   </si>
   <si>
     <t>vikings 
@@ -889,13 +176,681 @@
 sonic</t>
   </si>
   <si>
-    <t>caralho, quando vc compara o rascunho com o desenho final, está super ao meu estilinho, só acho que a cor do super sonic poderia estar mais clara... https://t.co/fao7dwrvgd</t>
+    <t>@bittrbubblegum @tnhbdam se sonic nunca estudo e rola a 40000 km por hora, eu vo larga os estudo tb</t>
+  </si>
+  <si>
+    <t>@rillextriste ahh, tá explicado o ódio contra sonic, vc prefere um jogo mais fácil.</t>
+  </si>
+  <si>
+    <t>@wooperssb k simp</t>
+  </si>
+  <si>
+    <t>sonic species&amp;gt;&amp;gt;&amp;gt;&amp;gt;&amp;gt;&amp;gt; rei da porra toda 😵🚣</t>
+  </si>
+  <si>
+    <t>fds sou mais rápido q o sonic</t>
+  </si>
+  <si>
+    <t>levei o  nenê assistir sonic https://t.co/iq805dmoph</t>
+  </si>
+  <si>
+    <t>ok, baby groot é fofo, olaf tbm, nossa agora baby yoda, n da mais, mds agora salcisha e scooby ? ok já chega
+mds baby sonic ????? 
+aaaaaaa tmnc sonic bb é a coisa mais fofa do muundooooooooooooo</t>
+  </si>
+  <si>
+    <t>#bbdebate bh e gabi são top 10 do mundo @brunovicari , eles são tipo sonic e tales, mário e luigi, chitão e chororó, tarcísio meira e glória menezes.</t>
+  </si>
+  <si>
+    <t>mano sônic tá o aço kkk
+só a camisa q estragou https://t.co/p5bsrjtlij</t>
+  </si>
+  <si>
+    <t>queria ir no cinema hoje, ver os bad boy ou sonic</t>
+  </si>
+  <si>
+    <t>rt @kauelet: tão torcendo muito pela minha queda, mais quem me sustenta é deus</t>
+  </si>
+  <si>
+    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim, gente muito diferente... bem estúpida, imbecis, e tudo que os boslixo adoram</t>
+  </si>
+  <si>
+    <t>conversar sobre sonic com a @thirstyghostt refrigera minha alma</t>
+  </si>
+  <si>
+    <t>rt @g1: 'dois irmãos: uma jornada fantástica' desbanca 'sonic' na liderança da bilheteria nacional https://t.co/z99lmcmlsw #g1 #cinema http…</t>
+  </si>
+  <si>
+    <t>obrigado senhor por mais um dia de vida, aprendi hoje a mexer com bucket tablet e que perdi tempo vendo ela, só pular sinceramente
+mexi no tinkercad dá pra programar os objetos para funcionar legalzinho
+troquei ideia com o sonic
+admiro o leonardo
+amo o hira
+amo a ana
+valeu deus</t>
+  </si>
+  <si>
+    <t>rt @fabibastos9: cada persoa ten un xogo que lle marcou na vida. "sonic adventure" foi o meu. este programa levoume de novo a miña infancia…</t>
+  </si>
+  <si>
+    <t>@brazilianboomer é a cabeca do sonic no bone</t>
+  </si>
+  <si>
+    <t>@luanquirante eu particularmente me frustei muito com a gameplay dele.
+tem momentos que as missões mescla a gameplay dos jogos antigos com a nova.
+e tipo, jogar com o sonic nesses momentos me deixou com raiva pois ele começava a correr em momentos inoportunos.
+teve 2 fases assim comigo.</t>
+  </si>
+  <si>
+    <t>sonic eh muito bom</t>
+  </si>
+  <si>
+    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim
+gente retardada.
+mande currículo!</t>
+  </si>
+  <si>
+    <t>impossível só ter sonic dublado no cinema</t>
+  </si>
+  <si>
+    <t>mas foi engraçado eu gostei do rolê ain sem contar a hora que eu chorei no filme sonic por que ele ganhou um quartinho afff me emocionei e elas rindo de mim</t>
+  </si>
+  <si>
+    <t>@foy3r @zapotismo sonic anorexo depois da ceia</t>
+  </si>
+  <si>
+    <t>geral chamando pra sonic dia 21, mas vou ficar em casa guardado 🥱👍🏼</t>
+  </si>
+  <si>
+    <t>cineminha de ontem com  eles.  #sonic https://t.co/vgr8dvf3li</t>
+  </si>
+  <si>
+    <t>sonic: ator assinou pré-contratos para possíveis sequências https://t.co/ekea9ryuhe https://t.co/cnd1s3ohni</t>
+  </si>
+  <si>
+    <t>baixar sonic ou esperar o battle royale do cod mw sair?</t>
+  </si>
+  <si>
+    <t>sonic youth- sugar kane altíssimo no fone só assim eu acordo pra facul scr</t>
+  </si>
+  <si>
+    <t>@lukasrsrs desses jogos mais novos do sonic, poucos se salvam né</t>
+  </si>
+  <si>
+    <t>rt @daniie_gc: naco. https://t.co/pvdkkczmmz</t>
+  </si>
+  <si>
+    <t>knuckles com o sonic no ova:"eu sou o knuckles o melhor amigo do sonic"
+knuckles com o sonic no jogo: https://t.co/wphqka6y4k</t>
+  </si>
+  <si>
+    <t>eu fui no cinema assistir sonic semana passada, não era o filme que eu queria ver, mas o filme é muito bom</t>
+  </si>
+  <si>
+    <t>acordei cedo pra me me jogar sonic</t>
+  </si>
+  <si>
+    <t>games e nostalgia,aqui está um programa para você… 99vidas 402 – sonic mania episódio de 99vidas - nostalgia e videogames
+https://t.co/1vrypuozcn</t>
+  </si>
+  <si>
+    <t>#top10 #bilheteria #filmes segunda:
+1. dois irmãos: uma jornada fantástica
+2. sonic - o filme
+3. o homem invisível
+4. maria e joão - o conto das bruxas
+5. dolittle
+6. aves de rapina
+7. minha mãe é uma peça 3
+8. a hora da morte
+9. bad boys para sempre
+10. parasita</t>
+  </si>
+  <si>
+    <t>rt @jojoskeee: "jogue como uma mulher"
+&amp;gt;qual que pula?
+&amp;gt;não é jogo do mario? 
+&amp;gt;não põe jogo de guerra, credo.
+&amp;gt;passa essa fase pra mim? 
+&amp;gt;…</t>
+  </si>
+  <si>
+    <t>@brazilianboomer pq twitter tem medo de um sonic no bone?</t>
+  </si>
+  <si>
+    <t>@leizao_lisboa @deivin_oficial @99leonardoponce kkkkkkkk chama o sonic</t>
+  </si>
+  <si>
+    <t>rt @imactuallyleo: chorei com o sonic. let me repeat para entenderem a gravidade da situação... chorei com o sonic</t>
+  </si>
+  <si>
+    <t>até agora já assisti:
+aves de rapina
+sonic
+dois irmãos</t>
+  </si>
+  <si>
+    <t>coloquei o filme do sonic,</t>
+  </si>
+  <si>
+    <t>rt @1902breno: esses dias vi no cinema “parasita” que puta filme pqp, oscar merecido.
+sábado vi com meus irmãos “sonic”, achei que ia ser u…</t>
+  </si>
+  <si>
+    <t>na minha pira de sonic achei uma wiki que mostra os layouts dos mapas dos jogos. legal ver como no sonic 2 as fases chegam a ter 3 caminhos e no sonic 3 até 5 caminhos. level designs fodas!</t>
+  </si>
+  <si>
+    <t>rt @demezilla: qq será que o sonic.exe tá fazendo uma hora dessas?</t>
+  </si>
+  <si>
+    <t>rt @anotherb7: pelado e se tênis me sinto o sonic</t>
+  </si>
+  <si>
+    <t>@ellensi12185556 @onabuc0 @allantercalivre @sonic_incel @cnnbrasil @tercalivre kkk, parecem crianças de 4 anos que estão comentando desenho animado, "esse vilão bobo que bater no meu herói, seu feio, bobão" vcs sao patéticos</t>
+  </si>
+  <si>
+    <t>tava jogando mario &amp;amp; sonic at the rio 2016 olympic games pelo cemu e o mii bugou
+fiz o mii bugado no switch (q a @aalarath nomeou de xullyano, obrigado lara) https://t.co/tz100yzrvh</t>
+  </si>
+  <si>
+    <t>o ônibus deu uma freada que a mulher fez igual ao sonic agora kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>namoral filme do sonic é daora kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>como ainda não criaram um meme para aquele fiuza? com um sonic dizendo: pois é fera, parece que você é conhecido como ex-namorado da narcisa, logo, sua opinião não vale nada.</t>
+  </si>
+  <si>
+    <t>po se pá faço umas aquarela do sonic pra gastar minhas canson</t>
+  </si>
+  <si>
+    <t>sonhava tanto em ser como o naruto pra crescer e ficar igual o shikamaru</t>
+  </si>
+  <si>
+    <t>klaus ok
+sonic ok
+bad boys agr? 
+a noite vai ser longa kk</t>
   </si>
   <si>
     <t>ok considerando que sera um draw this in your style, apesar de querer muito fazer um personagem humano eu seu que boa parte da minha following é da comunidade de sonic então quero que seja um desenho que vocês estejam confortáveis fazendo</t>
   </si>
   <si>
-    <t>sou critica formada de bisnaguinha.. comprei uma com o sonic na embalagem e é mt ruim nota 0 parem de fabricar</t>
+    <t>"jogue como uma mulher"
+&amp;gt;qual que pula?
+&amp;gt;não é jogo do mario? 
+&amp;gt;não põe jogo de guerra, credo.
+&amp;gt;passa essa fase pra mim? 
+&amp;gt;eu tenho medo desse jogo, põe outro mais bonitinho.
+&amp;gt;the sims eu sei jogar! 
+&amp;gt;esse controle tá ruim!
+&amp;gt;ah eu conheço esse aí! é o sonic né!? (era o crash)</t>
+  </si>
+  <si>
+    <t>@godsakuragi mas sonic forces também tem as mesmas descrições, com toooooooda certeza, não to sendo ironico, nunquisimo</t>
+  </si>
+  <si>
+    <t>@_ana_c tipo o clipe de pearly gates - é basicamente uma juxtaposição do clipe de like a prayer da madonna com tunic do sonic youth</t>
+  </si>
+  <si>
+    <t>eu encontrei o filme do sonic em full hd qualidade 10/10 e o mais estranho é que ainda tá passando nos cinemas e ainda tá em pré venda no itunes, amazon video, google play
+acho que vazou</t>
+  </si>
+  <si>
+    <t>rt @biologiabraba: hora da biologia caralho.
+hoje vamos falar sobre o sanic the hergirog, o ouriço. o que podemos destilar sobre esse bost…</t>
+  </si>
+  <si>
+    <t>@leehperes_ se sentindo igual ao sonic... pelada e de tênis</t>
+  </si>
+  <si>
+    <t>esse jogo do mario e sonic eu gostei da prova de surf.
+é a que eu mais jogo na demo.</t>
+  </si>
+  <si>
+    <t>manooo, como essas pessoas conseguem gosta e desgosta tão rápido assim? é algum vodu ou só empurra com a barriga msm? pq carai 6 são rápido; o sonic chega fica puto com vcs kkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>zootopia deu uma cagada gigantesca de fazer sucesso mesmo sendo uma animação lançada em março. onward é um fracasso de bilheteria. e não é nem culpa do coronavírus, sonic e o homem invisível continuam bombando!</t>
+  </si>
+  <si>
+    <t>esse filme do sonic ta perfeito
+foda-seeeeeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>estou sendo cancelado só pq falei que a mulher parecia o sonic anorexo (melzinho) https://t.co/l8gofjlfao</t>
+  </si>
+  <si>
+    <t>tem muita gente falando que aves de rapina é melhor do que o sonic pela questão da comédia, mas vamos combinar que o humor do maior fracasso da dc consegue ser bem mais forçado e desnessário do que o do ouriço azul. #souteamsonic</t>
+  </si>
+  <si>
+    <t>@popyfriendbr olha, depende
+o sonic de 2006 tem uma princesa humana que beija o sonic pra ressuscitá-lo ou algo assim (spoiler mesmo pq ngm gosta desse jogo)
+e... digamos que até hoje isso não é bem visto nem no fandom de sonic huasuhashusauhasuhas</t>
+  </si>
+  <si>
+    <t>viajei assistindo sonic aq, mas é mt maneiro</t>
+  </si>
+  <si>
+    <t>deu até vontade de jogar sonic de novo, um dia ainda baixo um emulador</t>
+  </si>
+  <si>
+    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim, devem tá mudando de ramo e agora irão inaugurar um hospício!</t>
+  </si>
+  <si>
+    <t>@marcoan94689189 o único anime que eu dropei foi sonic x,mas hoje eu me arrependo,eu era um fanático pelo mario na época</t>
+  </si>
+  <si>
+    <t>mano 
+            sai da minha mente
+faz favor 
+[insira imagem pixelada do sonic]</t>
+  </si>
+  <si>
+    <t>eu e o sonic, sonic e eu https://t.co/i455v6vcpx</t>
+  </si>
+  <si>
+    <t>fui ver sonic hoje no cinema, mas dando 0 valor pro filme. no final eu ri horrores e chorei tbm, resumindo ganhou meu coração</t>
+  </si>
+  <si>
+    <t>@verbelcorno @drontocore manda ai caso eu precise. meu filho so comentou desse sonic.exe através de um amigo da escola. mas vai que ele esbarra com ele no roblox e tem o piripaque do chaves 😲</t>
+  </si>
+  <si>
+    <t>rt @maxcachorrao_: evite o máximo depender de alguém...</t>
+  </si>
+  <si>
+    <t>só com muita boa vontade pra achar esse filme do sonic qualquer coisa mais que 'aceitável'</t>
+  </si>
+  <si>
+    <t>@dinhoxcx tu acha que essas coisas aí é de agora? deste dos inícios dos animes tem isso,até no ova do sonic de 1996,e por sinal é bizarro esse ova</t>
+  </si>
+  <si>
+    <t>andando pela casa tipo sonic invertido
+só de boné</t>
+  </si>
+  <si>
+    <t>gostaria de entender o sonho que eu tive de que faziam uma festa pra mim e eu aparecia fantasiado de sonic</t>
+  </si>
+  <si>
+    <t>@teofb senti bastante falta do apoio do sonic na ponta esquerda, pra poder receber essa bola do knuckles em boa posição. perder uma dessas na cara do gol é osso...</t>
+  </si>
+  <si>
+    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre que bonito um fascistinha pau no cu e um mamateiro mentiroso papeando sobre liberdade.
+façam um 69 e se matem, seus imbecis do caralho</t>
+  </si>
+  <si>
+    <t>sonic e aves de rapina ou estudar</t>
+  </si>
+  <si>
+    <t>rt @allan0li_: o filme do sonic é bom demais puta que pariuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>o filme do sonic é ruim mas eu quero muito que tenha continuação</t>
+  </si>
+  <si>
+    <t>@timuniverses @baloype @kakaxerataque @marcelodovolei além de tudo o sonic.exe é talarico</t>
+  </si>
+  <si>
+    <t>sonic tá massa</t>
+  </si>
+  <si>
+    <t>eu chorei no cinema hoje assistindo sonic. foda c</t>
+  </si>
+  <si>
+    <t>@brazilianboomer boné do sonic?</t>
+  </si>
+  <si>
+    <t>eu quero um tenis do sonic</t>
+  </si>
+  <si>
+    <t>@otavioa27806795 seria incrivel, sonic rush é bom demais e é meio que aquela ponte entre sonic moderno e o classico</t>
+  </si>
+  <si>
+    <t>sim, vadia, é isso mesmo que você leu. eu sou trans:
+t - otakult(veja mob psycho 
+   imediatamente)
+r - quero fazer cosplay do ricardo  
+   milos :/
+a - agênero
+n - viciado em corrida naruto
+s - gamadão no sonic, aspirante 
+   de seiya e shonen trash</t>
+  </si>
+  <si>
+    <t>na madrugada vamos de sonic o filme ♥️♥️♥️♥️ https://t.co/uwrp1aedxd</t>
+  </si>
+  <si>
+    <t>@joojsho @nartizilda sonic seria o cebolinha</t>
+  </si>
+  <si>
+    <t>@allantercalivre @sonic_incel @cnnbrasil @tercalivre errata: onde de le liberdade, leia-se: mamata.</t>
+  </si>
+  <si>
+    <t>@allantercalivre @sonic_incel @cnnbrasil @tercalivre e a mamata, né?</t>
+  </si>
+  <si>
+    <t>saiu sonic na internet, vou madrugar</t>
+  </si>
+  <si>
+    <t>lembro como se fosse hoje. tava louco pra jogar com o sonic. https://t.co/dar8khg2pr</t>
+  </si>
+  <si>
+    <t>rt @umfilosofocitou: terça-feira, 10 de março.
+senhor, obrigado por me acordar mais um dia. que as coisas boas aconteçam e as ruins levada…</t>
+  </si>
+  <si>
+    <t>vou escrever “pelado e de tênis me sinto o sônic”</t>
+  </si>
+  <si>
+    <t>@gusjaroski @lipaocigarro oakzoaksoaks
+"pelado e de tênis me sinto o sonic"</t>
+  </si>
+  <si>
+    <t>rt @xcapim360: sonic fighters zerado e 100%.
+vou começar o sonic 4 agora
+https://t.co/mtxav6mpcj</t>
+  </si>
+  <si>
+    <t>chorei em sonic x na parte final da cosmea
+chorei no final do capítulo 4 de sally face
+chorei em twdg quando o lee morreu e a clem foi mordida
+acho que é só wkfkeke</t>
+  </si>
+  <si>
+    <t>rt @omelete: james marsden voltaria para eventual sequência de sonic: o filme: "[faria] quantos filmes eles quisessem" https://t.co/mzvdsvu…</t>
+  </si>
+  <si>
+    <t>sonic la película
+final alternativo (spoilers) https://t.co/evtln8f0gt</t>
+  </si>
+  <si>
+    <t>@robertocarlosfj se sonic 2006 não destruiu nada mais consegue https://t.co/gmzfhl6dal</t>
+  </si>
+  <si>
+    <t>muito legal o filme do sonic</t>
+  </si>
+  <si>
+    <t>@kakaxerataque sonic.exe tá danado demais</t>
+  </si>
+  <si>
+    <t>@kakaxerataque @aqkkkj um caso com o sonic sim</t>
+  </si>
+  <si>
+    <t>sonic já tem no mr piracy
+yesssss</t>
+  </si>
+  <si>
+    <t>@atravessare @capadefilme @conclusoesinesp sim são eles.</t>
+  </si>
+  <si>
+    <t>sonic: salva os animais do avanço da industrialização
+mario: sacrifica e assassina animais para seu próprio bem
+é uma escolha moral https://t.co/asl1hg1cmj</t>
+  </si>
+  <si>
+    <t>rt @oguizaum: pelado e de tênis igual o sonic</t>
+  </si>
+  <si>
+    <t>por favor sonic.exe entre em minha casa e meta na minha esposa https://t.co/ozmdwmnu8v</t>
+  </si>
+  <si>
+    <t>sdds sonic</t>
+  </si>
+  <si>
+    <t>esse filme do sonic é bem sessão da tarde (o que não quer dizer que é ruim)
+só o fato de ouvirem os fãs e mudarem o visual já demonstra uma boa vontade
+e o jim carrey de robotnik pra variar roubou a cena</t>
+  </si>
+  <si>
+    <t>como assim o filme do sonic estreou há 1 mês e já está disponível na net?!?!?!
+epa fodase não pode... epa sendo assim nem valia...</t>
+  </si>
+  <si>
+    <t>fala mal de sonic youth não pq eu fico daquele jeitolas, louco pra dar um murro na lata, kim gordon case comigo agora</t>
+  </si>
+  <si>
+    <t>@popyfriendbr era pra ser uma amizade, mas a fanbase de sonic faz o que ela quiser</t>
+  </si>
+  <si>
+    <t>sonic não mata o amiguinho tails pra avançar no jogo.
+já o mário e o yoshi...
+encanador fdp...😄😄😄 https://t.co/io9l49rmwm</t>
+  </si>
+  <si>
+    <t>alguém afim de assistir sonic nos cinemas? 👀</t>
+  </si>
+  <si>
+    <t>ontem levei pedro no shopping, viu filme do sonic e dps pediu p lanchar no burguer king 😍</t>
+  </si>
+  <si>
+    <t>@gziks lego temático igual foi o do sonic</t>
+  </si>
+  <si>
+    <t>@luizougui "os 100 memes do ano"
+- nossa faltou o sonic beijando o shrek</t>
+  </si>
+  <si>
+    <t>rt @morenaabjs: algumas pessoas estão com raiva de você, pq vc não tá sofrendo da forma como elas esperavam. deus vai continuar desapontand…</t>
+  </si>
+  <si>
+    <t>@ellensi12185556 @onabuc0 @allantercalivre @sonic_incel @cnnbrasil @tercalivre sim, nesse momento o thanos aparece e rouba a joia da verdade... ( ta ficando bom, continuem...)</t>
+  </si>
+  <si>
+    <t>queria voltar aos dias de quando eu só me preocupava em jogar jogos do sonic.</t>
+  </si>
+  <si>
+    <t>@belpetit to aqui só pra defender o filme do sonic</t>
+  </si>
+  <si>
+    <t>eu penso seriamente em dar minha opnião política de forma extensa e não ironica, sabe, as vezes eu chego muito perto, eu tenho vários rascunhos de tweets que eu queria faze   
+mas eu sou só o shitposter que usa foto do sonic, só lhes digo uma coisa, lute pelo oque acredita.</t>
+  </si>
+  <si>
+    <t>@galiodeus ontem , por exemplo ,eu fui assistir sonic com meu sobrinho e a minha mãe , pq ele tava querendo muito assistir e eu tbm , aí eu tive que explicar praticamente tudo pra minha mãe ,ou seja narrar pra ela , mas se a pessoa entende o filme eu não explico não</t>
+  </si>
+  <si>
+    <t>hm queria ver sonic</t>
+  </si>
+  <si>
+    <t>@jv_trembala o famoso sonic</t>
+  </si>
+  <si>
+    <t>vo dormir pq amanha o sonic nao vai levantar 7h30 por mim</t>
+  </si>
+  <si>
+    <t>eu sonhei que era o sonic</t>
+  </si>
+  <si>
+    <t>já saiu sonic em 1080p https://t.co/lv9vi0mvdq</t>
+  </si>
+  <si>
+    <t>as trilhas sonoras em todos os jogos do sonic são fodas, incrível.</t>
+  </si>
+  <si>
+    <t>@mintyth 😢s a d😢
+na verdade, o sonic é praticamente o forever alone na terra https://t.co/tridrbxdgw</t>
+  </si>
+  <si>
+    <t>assisti sonic e achei maneiro, nostalgia pura pra galera dos 90s</t>
+  </si>
+  <si>
+    <t>@youryumiii @joow73177868 @caramelo_dog ok, vamo leva o sonic pro rolê</t>
+  </si>
+  <si>
+    <t>quando vai sair o filme do sonic nessa versão pra assistir? https://t.co/fqijtkqhlw</t>
+  </si>
+  <si>
+    <t>@teofb acho a escolha do treinador (ou mister rs) que sofreu o ataque muito ruim, 2 defensores pesados na última linha num time que tem metal sonic e knuckles pra atacar? complicado.</t>
+  </si>
+  <si>
+    <t>@hunterx_writer  obviamente que ajudai e no meu sonho a lilac tava namorando o tails do sonic
+e ela me perguntou o meu nome
+cara o esquisito é que ela me disse que esse era um universo invertido pois meu nome estava no universo delas como um personagen ficticio
+bizzaro</t>
+  </si>
+  <si>
+    <t>gosto do canal do @fiaspo  porque além de falar curiosidades sobre games, é bonito e usa camisas do sonic 🥰</t>
+  </si>
+  <si>
+    <t>sem trapacear: você está estrelando num filme com o último personagem salvo na sua galeria e a última música que vc ouviu é o título 
+sonic: sunflower https://t.co/9fp6nntlol https://t.co/y21uex92zp https://t.co/z1jpf5ntgq</t>
+  </si>
+  <si>
+    <t>@igorcg @danisab95 "nerd se joga de prédio após ver sonic na capa da revista nintendo world"</t>
+  </si>
+  <si>
+    <t>meu deus. acabo de descobrir que sonic é um ouriço! 😳 https://t.co/gfqficy382</t>
+  </si>
+  <si>
+    <t>mandei foto do trabalho p queiroz e ele mandou o sonic escrito cachorra</t>
+  </si>
+  <si>
+    <t>rt @alexandre_xlr: ontem eu assisti ao filme do sonic: é um filme divertido e legal! só isso que tenho a dizer... https://t.co/alscvagrzk</t>
+  </si>
+  <si>
+    <t>tá mais quem vai no cinema comigo assitir sonic?</t>
+  </si>
+  <si>
+    <t>confira minha transmissão do meu playstation 4! #ps4live (sonic forces)  live at https://t.co/euxpjv5s2s</t>
+  </si>
+  <si>
+    <t>vo assistir o sonic</t>
+  </si>
+  <si>
+    <t>pelada de meia tipo o sonic</t>
+  </si>
+  <si>
+    <t>toda vez que eu jogo sonic adventure eu tenho certeza que esse jogo nao foi feito pra dar certo</t>
+  </si>
+  <si>
+    <t>@ribeirmatheus sonic colors, generations e mania foram impecáveis... o resto joga no lixo q tá podre</t>
+  </si>
+  <si>
+    <t>@notfakeyas @sorianotwt sonic eu te amo kkkkkkkk esse é o tipo de entretenimento que faltava ao meu tt</t>
+  </si>
+  <si>
+    <t>cade meu sonic.exe https://t.co/sjft8i7oae</t>
+  </si>
+  <si>
+    <t>rt @_ld7x: boa noite venho por meio desse tweet e peço a ajuda de vocês para fazer chegar no @flamengo 
+minha prima faleceu hj após uma cir…</t>
+  </si>
+  <si>
+    <t>para todos os alternos com sonic imagery nos vossos perfis: i love you and ur valid</t>
+  </si>
+  <si>
+    <t>engraçado que quem e rapido e o sonic mais quem passou despercebido foi aves de rapina.</t>
+  </si>
+  <si>
+    <t>ao léu 02: entre espinhos e triunfos com sonic, o filme https://t.co/4u5pizs9ax</t>
+  </si>
+  <si>
+    <t>bala no cuzao do sonic</t>
+  </si>
+  <si>
+    <t>ontem depois de trabalhar o dia todo, cheguei às 20, fiz o jantar, lavei louça, fiz 1 hora de esteira. quando faço essas coisas, me sinto o sonic passando de fase</t>
+  </si>
+  <si>
+    <t>melhor que muitos, sem estúdio, e falando de sonic</t>
+  </si>
+  <si>
+    <t>acho que tô dando um tempo daqui, realmente tá meio tóxico pra mim ver certas coisas (o famoso gatilho), fico no “continuar aqui pra acompanhar sobre taylor e sonic” x “sair pra restaurar minha visão do mundo”, acho que vou criar outro tt só pra a primeira opção, eh isto</t>
+  </si>
+  <si>
+    <t>filme do sonic eh tudo d bom.</t>
+  </si>
+  <si>
+    <t>sonic: ator assinou pré-contratos para possíveis sequências https://t.co/kvjknbgwe5 https://t.co/eumzqkana2</t>
+  </si>
+  <si>
+    <t>ainda não foi ver o ouriço mais rápido do mundo? para de ser lento e vem conferir sonic o filme, hoje no cine 14 bis!
+sessões 2d/dub às 15h30! https://t.co/vw0fkx94f6</t>
+  </si>
+  <si>
+    <t>nossa, já saiu sonic em hd para download. vou baixar pra poder ver com o áudio original, já que só vi dublado no cinema.</t>
+  </si>
+  <si>
+    <t>@arkhmcity mas o sonic é melhor mesmo</t>
+  </si>
+  <si>
+    <t>@neguimgoblin @aryelsereio ja pensou, collab de todos os personagens de sonic boom 👀</t>
+  </si>
+  <si>
+    <t>rt @huugolino_: aqui atendemos loucos e não imbecís, obrigado. 🤪
+sonic massala - freedom 08.03 https://t.co/79kboa63r4</t>
+  </si>
+  <si>
+    <t>@mr_fujimaster entendi... eu não curto muito o gameplay do clássico nesses novos aí, mas do sonic moderno com o avatar me chamou a atenção. comprei forces numa oferta, quando tiver tempo, vou dar uma chance.</t>
+  </si>
+  <si>
+    <t>@otaku_fudidu tomara que a madhouse entre com um acordo com a sega pra fazer um anime novo do sonic</t>
+  </si>
+  <si>
+    <t>aqui vai uma dica\pensamento para os daoras e ao @damianizando e ao @rikeditor.  pq ao invés de chamar "corrida naruto" nós não falamos "corrida sonic" pq o sonic é quem corria com os braços para traz e é mais velho q o naruto. hehe &amp;gt;w&amp;lt; https://t.co/uu2iosjak7</t>
+  </si>
+  <si>
+    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre bote diferente nisso rs</t>
+  </si>
+  <si>
+    <t>@brieelga caraí viado o pé do sonic</t>
+  </si>
+  <si>
+    <t>ow ow ow, quem ai anima de assistir sonic?</t>
+  </si>
+  <si>
+    <t>10 minutos de filme do sonic e eu já adorei</t>
+  </si>
+  <si>
+    <t>rt @alcoolatraeusou: mó chato querer tomar uma cervejinha com a namorada e não ter namorada</t>
+  </si>
+  <si>
+    <t>eu só queria um sonic de aniversário</t>
+  </si>
+  <si>
+    <t>@fvsfabricio aliás, ver um horizon 0 dawn chegar no pc é quase a mesma sensação de ver o sonic saindo pra uma plataforma que não da sega ...</t>
+  </si>
+  <si>
+    <t>vídeo sonic mlk pro lindo canal amigo jogar vamo foto meme fofa mds https://t.co/xp7hvrzksu</t>
+  </si>
+  <si>
+    <t>rt @ramosbrunow: esse filme do sonic é bem sessão da tarde (o que não quer dizer que é ruim)
+só o fato de ouvirem os fãs e mudarem o visua…</t>
+  </si>
+  <si>
+    <t>rt @librarbykkk: acabei de assistir sonic o filme,mano q foda!!o sonic fez a dancinha do fortnite manooo</t>
+  </si>
+  <si>
+    <t>sonic descalço fodase https://t.co/sdqjqlojb3</t>
+  </si>
+  <si>
+    <t>quero saber se o sonic faz esse tipo de crocodilagem com o tails https://t.co/pdohecoylz</t>
+  </si>
+  <si>
+    <t>@pimpolhayt tu já viu sonic x?</t>
+  </si>
+  <si>
+    <t>amigos que entendem do universo sonic
+isso é um ship ou uma amizade linda? https://t.co/odpehs8vx4</t>
+  </si>
+  <si>
+    <t>sonic riders fatos bobos que você não sabia https://t.co/75yag5uro6</t>
+  </si>
+  <si>
+    <t>as vezes tudo que a gnt precisa é assistir sonic c mozao</t>
+  </si>
+  <si>
+    <t>hoje eu assisti sonic e só tenho uma coisa a declarar 
+eu quero um p mim</t>
+  </si>
+  <si>
+    <t>@hagazo hagazo qual  emelhor 
+ sonic ou mario</t>
+  </si>
+  <si>
+    <t>rt @aquelaisaali: to com saudade de evento de anime
+mas assim, de 2013 pra trás
+numa faculdade, um monte de cospobre, gente se beijando na…</t>
   </si>
   <si>
     <t>disponível [kit sonic]
@@ -908,200 +863,286 @@
 #verticy #verticyclothing #sonic https://t.co/h4ncwzfxpq</t>
   </si>
   <si>
-    <t>sonic youth- sugar kane altíssimo no fone só assim eu acordo pra facul scr</t>
-  </si>
-  <si>
-    <t>hoje eu assisti sonic e só tenho uma coisa a declarar 
-eu quero um p mim</t>
-  </si>
-  <si>
-    <t>taehyung eu nao sei jogar lol vamos jogar sla sonic juntos eu amo sonic... https://t.co/tg7lvomcmq</t>
-  </si>
-  <si>
-    <t>elogie sua mina mesmo que ela acorde de manha parecendo o sonic</t>
-  </si>
-  <si>
-    <t>@kakaxerataque @aqkkkj um caso com o sonic sim</t>
-  </si>
-  <si>
-    <t>@skylinevoid @allan0li_ baixe 'sonic: o filme'  
-dublado ou legendado na melhor qualidade em nosso site!
-site rápido, moderno e sem anúncios excessivos!
-confira: https://t.co/k4focx7197</t>
-  </si>
-  <si>
-    <t>@otavioa27806795 seria incrivel, sonic rush é bom demais e é meio que aquela ponte entre sonic moderno e o classico</t>
-  </si>
-  <si>
-    <t>@zimmer_mat @chimarritaa, nem o sonic, cara</t>
-  </si>
-  <si>
-    <t>@hagazo hagazo qual  emelhor 
- sonic ou mario</t>
-  </si>
-  <si>
-    <t>indo dormir igual o sonic,   pelada e de meia</t>
-  </si>
-  <si>
-    <t>@neguimgoblin @aryelsereio ja pensou, collab de todos os personagens de sonic boom 👀</t>
-  </si>
-  <si>
-    <t>@silvazuao ela fez promoção do mario maker 2, super mario party, mario &amp;amp; sonic e, pasmem, yoshi crafted world, mas nada de mario odissey... lógica nintendo</t>
+    <t>rt @pincheotaku: sonic la película
+final alternativo (spoilers) https://t.co/evtln8f0gt</t>
+  </si>
+  <si>
+    <t>vou no cinema hoje ver sonic nem que eu tenha que ir sozinho</t>
+  </si>
+  <si>
+    <t>rt @alaidegabriel: manooo, como essas pessoas conseguem gosta e desgosta tão rápido assim? é algum vodu ou só empurra com a barriga msm? pq…</t>
+  </si>
+  <si>
+    <t>rt @valerio_saick: como assim o sonic nao dorme pelado de tenis????</t>
+  </si>
+  <si>
+    <t>@otakuzinh0 se o naruto de costas com o sonic clássico</t>
+  </si>
+  <si>
+    <t>quero ir assistir sonic</t>
+  </si>
+  <si>
+    <t>man se eu pinta meu cabelo de azul viro o sônic https://t.co/6lqcxoerkh https://t.co/4ivwq6g2lu</t>
+  </si>
+  <si>
+    <t>os cara acha que pra chupar buceta tem que saber fazer mortal com a língua e correr com ela que nem o sônic, mds ainda bem que nasci sapatao</t>
+  </si>
+  <si>
+    <t>já zerei o sonic 😭</t>
+  </si>
+  <si>
+    <t>adorei que sonic é um filme infantil e todos os homens que boicotaram aves de rapina gastaram dinheiro pra assistir no cinema com todas as outras crianças</t>
+  </si>
+  <si>
+    <t>sonic generations é o melhores jogo de sonic dos últimos tempos</t>
+  </si>
+  <si>
+    <t>esses dias vi no cinema “parasita” que puta filme pqp, oscar merecido.
+sábado vi com meus irmãos “sonic”, achei que ia ser uma merda mas é legalzinho.
+e domingo vi “o homem invisível”, outro filme bem maneiro de suspense.
+sequência boa no cinema</t>
+  </si>
+  <si>
+    <t>pelada e de tênis me sinto o sonic</t>
+  </si>
+  <si>
+    <t>@babixll @bagainho @bikkuriyuta @coordnated @pavanelas @dreamermei @raitorage @lepipinho @idrazzul @chereco @gazetheabyss @fulfaiters @foy3r pior que eu falei da outra sonic</t>
+  </si>
+  <si>
+    <t>me tornei a própria imagem do sonic
+mano não me dirige a palavra não faz favor</t>
+  </si>
+  <si>
+    <t>levei davi ontem p ver o filme do sonic, adorei o filme cr kk🥰</t>
   </si>
   <si>
     <t>finalmente assisti "sonic" achei tudo! mt nostalgia, um dos meus maiores orgulhos foi ter zerado esse jogo 🤍</t>
   </si>
   <si>
-    <t>sdds sonic</t>
-  </si>
-  <si>
-    <t>rt @biologiabraba: hora da biologia caralho.
-hoje vamos falar sobre o sanic the hergirog, o ouriço. o que podemos destilar sobre esse bost…</t>
+    <t>estou perdendo minhas estribeiras com o sonic tomando banho censurado https://t.co/x2vngtqjoz</t>
   </si>
   <si>
     <t>@kelwynplath @assoprafita haha, carai não me lembre de sonic 2006</t>
   </si>
   <si>
-    <t>o filme do sonic é bom demais puta que pariuuuuuuuuuu</t>
-  </si>
-  <si>
-    <t>@popyfriendbr olha, depende
-o sonic de 2006 tem uma princesa humana que beija o sonic pra ressuscitá-lo ou algo assim (spoiler mesmo pq ngm gosta desse jogo)
-e... digamos que até hoje isso não é bem visto nem no fandom de sonic huasuhashusauhasuhas</t>
-  </si>
-  <si>
-    <t>#bbdebate bh e gabi são top 10 do mundo @brunovicari , eles são tipo sonic e tales, mário e luigi, chitão e chororó, tarcísio meira e glória menezes.</t>
-  </si>
-  <si>
-    <t>@frtsgz nunca, pelada e de crachá você me lembra o sonic estagiario</t>
-  </si>
-  <si>
-    <t>yaaaaas, vou ver o sonic</t>
-  </si>
-  <si>
-    <t>10 minutos de filme do sonic e eu já adorei</t>
-  </si>
-  <si>
-    <t>@bittrbubblegum @tnhbdam se sonic nunca estudo e rola a 40000 km por hora, eu vo larga os estudo tb</t>
-  </si>
-  <si>
-    <t>na madrugada vamos de sonic o filme ♥️♥️♥️♥️ https://t.co/uwrp1aedxd</t>
-  </si>
-  <si>
-    <t>@bia_lavs eu amo esse meme do sonic, ele é muito adaptável pra qualquer situação hasuaeauhshuaeas</t>
-  </si>
-  <si>
-    <t>@jazzdfideliz sonic preto fds</t>
-  </si>
-  <si>
-    <t>levei davi ontem p ver o filme do sonic, adorei o filme cr kk🥰</t>
-  </si>
-  <si>
-    <t>@shimefunghii hhhuahaushsuhsushaushsu nem dá, ela quer ver sonic
-orgulho 😎👍</t>
-  </si>
-  <si>
-    <t>acordei e ainda estou feliz com o filme do sonic. é bom mesmo</t>
-  </si>
-  <si>
-    <t>pelada e de tênis me sinto o sonic</t>
-  </si>
-  <si>
-    <t>@milaatono eu to zoando mulher, eu só tava com preguiça de pensar quando eu assisti. to num momento de assistir sonic e rir de qualquer ele faz uma piada tipo “macacos me mordam” hauahau</t>
+    <t>@rafaaleitt transar parecendo o sonic?</t>
+  </si>
+  <si>
+    <t>nunca tinha visto o sonic sem os tênis https://t.co/elbwqyxlwh</t>
+  </si>
+  <si>
+    <t>queria pintar meu cabelo inteiro de azul mas eu lembrei que em 2016 eu fiz isso e fiquei parecendo o sonic de chernobyl</t>
+  </si>
+  <si>
+    <t>@netflixpt se tivesse alguns anéis com ele, este primo do sonic tinha resistido ao golpe</t>
+  </si>
+  <si>
+    <t>e arthur agora que só quer assistir o sonic</t>
+  </si>
+  <si>
+    <t>ah velho eu não acredito que o filme do sonic tem a cena do mercúrio</t>
+  </si>
+  <si>
+    <t>não acredito que fizeram referência ao sanic no filme do sonic mlhr filme da década</t>
+  </si>
+  <si>
+    <t>@suamain1 @victorina_uwu shrek grávido do sonic pelo batman&amp;gt;&amp;gt;&amp;gt;soluço grávido do banguela</t>
+  </si>
+  <si>
+    <t>1917 e sonic disponíveis https://t.co/tyoaao1iow</t>
+  </si>
+  <si>
+    <t>@strogonofada tu deitou braba, tem altas coisa boa do sonic massala vindo emmm</t>
+  </si>
+  <si>
+    <t>assistino o filme do sonic pra almoçar
+o auge</t>
+  </si>
+  <si>
+    <t>chorei com o sonic. let me repeat para entenderem a gravidade da situação... chorei com o sonic</t>
+  </si>
+  <si>
+    <t>imagina o menino do sonic youth cantando no seu ouvidinho</t>
+  </si>
+  <si>
+    <t>vou pro cinema com o enzinho ver sonic dnv 💖</t>
+  </si>
+  <si>
+    <t>assistir sonic ontem, filé demais o filme! 🤙🏼</t>
+  </si>
+  <si>
+    <t>10 de março e nenhum fela da puta de amigx me convidou pra assistir o filme do sonic</t>
+  </si>
+  <si>
+    <t>e eu q fui me arrumar p trabalhar, sai do banho, coloquei q cueca, fiquei na cama mechemos no celular, olhei p tênis, e coloquei o tênis, tudo normal, do nada olho p cama e a calça do do meu lado, me senti o sonic agora</t>
+  </si>
+  <si>
+    <t>@naluhh e diverti com o sônic no ps4 hahahahah, veio aquela faze das graminhas, bateu a nostalgia.</t>
   </si>
   <si>
     <t>@drontocore tem um canal q desmistifica o sonic.exe, se interessar mostra pro seu irmão</t>
   </si>
   <si>
-    <t>sonic já tem no mr piracy
-yesssss</t>
-  </si>
-  <si>
-    <t>@kakaxerataque mano. sonic tem uma piroquinha</t>
-  </si>
-  <si>
-    <t>rt @umfilosofocitou: terça-feira, 10 de março.
-senhor, obrigado por me acordar mais um dia. que as coisas boas aconteçam e as ruins levada…</t>
-  </si>
-  <si>
-    <t>conversar sobre sonic com a @thirstyghostt refrigera minha alma</t>
-  </si>
-  <si>
-    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre que bonito um fascistinha pau no cu e um mamateiro mentiroso papeando sobre liberdade.
-façam um 69 e se matem, seus imbecis do caralho</t>
-  </si>
-  <si>
-    <t>originalmente um jogo do ligeirinho, algum malandro viu a oportunidade e apenas estampou o sonic no lugar do rato mexicano, e o resultado foi esse cartucho que enganou tanto moleque nos anos 90. na época eu joguei tanto o original quanto esse, então não me iludi. https://t.co/ir3n2zefxa</t>
-  </si>
-  <si>
-    <t>fala mal de sonic youth não pq eu fico daquele jeitolas, louco pra dar um murro na lata, kim gordon case comigo agora</t>
-  </si>
-  <si>
-    <t>baixar sonic ou esperar o battle royale do cod mw sair?</t>
-  </si>
-  <si>
-    <t>rt @aryelsereio: -- ray o esquilo voador --
-a minha parte na collab com o @neguimgoblin, esse formato ficou lindo cara!
-usando um #puma r…</t>
-  </si>
-  <si>
-    <t>para todos os alternos com sonic imagery nos vossos perfis: i love you and ur valid</t>
-  </si>
-  <si>
-    <t>@wooperssb k simp</t>
-  </si>
-  <si>
-    <t>rt @aquelaisaali: to com saudade de evento de anime
-mas assim, de 2013 pra trás
-numa faculdade, um monte de cospobre, gente se beijando na…</t>
-  </si>
-  <si>
-    <t>@luanquirante eu particularmente me frustei muito com a gameplay dele.
-tem momentos que as missões mescla a gameplay dos jogos antigos com a nova.
-e tipo, jogar com o sonic nesses momentos me deixou com raiva pois ele começava a correr em momentos inoportunos.
-teve 2 fases assim comigo.</t>
-  </si>
-  <si>
-    <t>cade meu sonic.exe https://t.co/sjft8i7oae</t>
-  </si>
-  <si>
-    <t>meu deus tem um sanic no filme do sonic eu quase acordei a vizinhança com uma risada</t>
-  </si>
-  <si>
-    <t>rt @huugolino_: aqui atendemos loucos e não imbecís, obrigado. 🤪
-sonic massala - freedom 08.03 https://t.co/79kboa63r4</t>
+    <t>assisti sonic ontem, pqp filmao</t>
+  </si>
+  <si>
+    <t>@xvthay que massa princesa sempre quis conhecer um parente do sonic</t>
+  </si>
+  <si>
+    <t>pelado e de tenis me sinto o sonic</t>
+  </si>
+  <si>
+    <t>saiu um jogo novo do sonic 
+vou já jogar pra ver qual e</t>
   </si>
   <si>
     <t>-me diz, qual é o seu maior fetiche?
 -ser corneado pelo sonic https://t.co/czfwypnnj7</t>
   </si>
   <si>
-    <t>estou perdendo minhas estribeiras com o sonic tomando banho censurado https://t.co/x2vngtqjoz</t>
-  </si>
-  <si>
-    <t>eu penso seriamente em dar minha opnião política de forma extensa e não ironica, sabe, as vezes eu chego muito perto, eu tenho vários rascunhos de tweets que eu queria faze   
-mas eu sou só o shitposter que usa foto do sonic, só lhes digo uma coisa, lute pelo oque acredita.</t>
-  </si>
-  <si>
-    <t>sonic forces iniciado e encerrado no mesmo dia.
-um jogo bastante corrido,curto, sem desafio e com uma gameplay bem ruim. tendo apenas a trilha sonora como coisa boa.
-uma grande decepção para a franquia sonic.
-sonic mania merece mais a sua atenção do que este aqui.
-nota: 3/10. https://t.co/f61uoagsix</t>
-  </si>
-  <si>
-    <t>sonic fighters zerado e 100%.
-vou começar o sonic 4 agora
-https://t.co/mtxav6mpcj</t>
-  </si>
-  <si>
-    <t>pelado e de ultraboost me sinto o sonic</t>
-  </si>
-  <si>
-    <t>melhor que muitos, sem estúdio, e falando de sonic</t>
-  </si>
-  <si>
-    <t>@atlaspathfinder sonic / mario, pc / console, burguer king / mc donald's , ovo maltine / concorrência e rio / sp. já vi muitas discussões por coisas assim.</t>
+    <t>eu devo treinar pra corrida do sonic jogando sonic, assistindo alguém jogar sonic ou vendo o filme do sonic?</t>
+  </si>
+  <si>
+    <t>@fifthnilha eu tambem viu sonic, eu vou ter que esperar um pouco, mas  to na ansia  a muito tempo  =]</t>
+  </si>
+  <si>
+    <t>elogie sua mina mesmo que ela acorde de manha parecendo o sonic</t>
+  </si>
+  <si>
+    <t>@goonyella_ pro-cush!</t>
+  </si>
+  <si>
+    <t>@bia_lavs eu amo esse meme do sonic, ele é muito adaptável pra qualquer situação hasuaeauhshuaeas</t>
+  </si>
+  <si>
+    <t>@aryelsereio logo vc que não é de desenhar sonic...</t>
+  </si>
+  <si>
+    <t>bilheteria | ‘dois irmãos’ desbanca ‘sonic’ e lidera na semana de estreia https://t.co/ehy4gzwbue</t>
+  </si>
+  <si>
+    <t>sonic – o filme | cinco vezes que eu amei jim carrey https://t.co/rkrpfprfzm https://t.co/mqhzdrpmpf</t>
+  </si>
+  <si>
+    <t>rt @jackiedeartemis: o público torna evidente a qualidade superior do filme sonic👌👌 em relação a parasite🤢. a atuação, efeitos especiais e…</t>
+  </si>
+  <si>
+    <t>@arcsystemworksu dizzy  pliz https://t.co/q9bebjqx7k</t>
+  </si>
+  <si>
+    <t>amei o filme do sonic. muito lindinho! ♥️</t>
+  </si>
+  <si>
+    <t>o filme do sonic é bom demais puta que pariuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>yaaaaas, vou ver o sonic</t>
+  </si>
+  <si>
+    <t>@batwxng ele me levou hj mas nao tem  horaorio nessa bista de cinema 
+assisti sonic</t>
+  </si>
+  <si>
+    <t>@sonic_incel @allantercalivre @cnnbrasil @tercalivre sim. gente esquizofrênica e incompetente.</t>
+  </si>
+  <si>
+    <t>ainda bem que refizeram o visual do sonic, pq ficou lindo https://t.co/xupjjnqlvi</t>
+  </si>
+  <si>
+    <t>@conversasq tá certo.</t>
+  </si>
+  <si>
+    <t>rt @csmoviesbrazil: #top10 #bilheteria #filmes segunda:
+1. dois irmãos: uma jornada fantástica
+2. sonic - o filme
+3. o homem invisível
+4. m…</t>
+  </si>
+  <si>
+    <t>aconteceu tanta coisa nesse março que esqueci de comentar o quanto o filme do sonic é bacana show massa dezao demais de bom</t>
+  </si>
+  <si>
+    <t>armarudas de mulher não funcionam - sonic 06 #19 https://t.co/wpnfjz6kgb via @youtube</t>
+  </si>
+  <si>
+    <t>baixei emulador de mastersystem no celular de novo e tinha esquecido o tanto que sonic dele é difícil pra caralho.</t>
+  </si>
+  <si>
+    <t>sonic forces gratuito esse mês na ps plus *----*</t>
+  </si>
+  <si>
+    <t>@assoprafita mas poderia ser o poderoso sonic!!!</t>
+  </si>
+  <si>
+    <t>eu tava com muito medo de assistir sonic e me decepcionar, pq eu amo sonic
+e fiquei muito feliz! ainda mais com a aparição do tails no final ❤️❤️❤️❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>esse cafuné é de perder o fôlego.
+#dokidokiliteratureclub https://t.co/hcywesnrus</t>
+  </si>
+  <si>
+    <t>na boa, esse povo tá muito chato!
+assiste esses dias x-men a fênix negra! não é o melhor filme dos x-men, mas gostei bastante... fui no cinema assistir sonic, e pô! filme divertido...
+não sei o que tá acontecendo, mas essas críticas tão rolando não.</t>
+  </si>
+  <si>
+    <t>indo dormir igual o sonic,   pelada e de meia</t>
+  </si>
+  <si>
+    <t>@lukeeh6 sonic puto esse é o tweet</t>
+  </si>
+  <si>
+    <t>@milaatono eu to zoando mulher, eu só tava com preguiça de pensar quando eu assisti. to num momento de assistir sonic e rir de qualquer ele faz uma piada tipo “macacos me mordam” hauahau</t>
+  </si>
+  <si>
+    <t>os planos pra hj é beber agua jogar sonic e atrasar pra aula da prof paula</t>
+  </si>
+  <si>
+    <t>dei play no novo sonic, seja o que deus quiser</t>
+  </si>
+  <si>
+    <t>sonic é muito bom</t>
+  </si>
+  <si>
+    <t>@zimmer_mat @chimarritaa, nem o sonic, cara</t>
+  </si>
+  <si>
+    <t>lembram que o sonic boom quase destruiu o sonic ? https://t.co/e6bjhjykfo</t>
+  </si>
+  <si>
+    <t>não creio que eu tô a essa hora da manhã chorando com sonic por ele estar se sentindo sozinho... o auge meu pai</t>
+  </si>
+  <si>
+    <t>rt @r_luscas: até hj eu n vi sonic</t>
+  </si>
+  <si>
+    <t>https://t.co/pl9ratlt36
+to jogando sonic https://t.co/cg8dlhaffe</t>
+  </si>
+  <si>
+    <t>@frtsgz nunca, pelada e de crachá você me lembra o sonic estagiario</t>
+  </si>
+  <si>
+    <t>@kakaxerataque mano. sonic tem uma piroquinha</t>
+  </si>
+  <si>
+    <t>@idrazzul @bagainho @babixll @bikkuriyuta @coordnated @pavanelas @dreamermei @raitorage @lepipinho @chereco @gazetheabyss @fulfaiters @foy3r é lá nossa culpa se ela parece com o sonic anorexo?? (que inclusive é apelidada como sonic anorexo)</t>
+  </si>
+  <si>
+    <t>@jazzdfideliz sonic preto fds</t>
+  </si>
+  <si>
+    <t>star wars 8 é o sonic cd da nova trilogia pra mim. comecei detestando e hoje é um dos meus favoritos.</t>
+  </si>
+  <si>
+    <t>meu deus tem um sanic no filme do sonic eu quase acordei a vizinhança com uma risada</t>
+  </si>
+  <si>
+    <t>acordei e ainda estou feliz com o filme do sonic. é bom mesmo</t>
+  </si>
+  <si>
+    <t>@urahar0 ah, isso eu sei, pensei q tu tava se referindo ao sonic da imagem kkkkkkkkkkkkkkk</t>
   </si>
   <si>
     <t>Teste</t>
@@ -1475,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A310"/>
+  <dimension ref="A1:A323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1962,7 +2003,7 @@
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3031,9 +3072,74 @@
         <v>309</v>
       </c>
     </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A97" r:id="rId1"/>
+    <hyperlink ref="A315" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3049,7 +3155,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Sonic.xlsx
+++ b/Sonic.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\3ºSemestre\CieDadosDP\Projeto1\CDados2020_Projeto1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDFCC9-B384-45DC-B0E7-627471C760E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1147,12 +1153,15 @@
   <si>
     <t>Teste</t>
   </si>
+  <si>
+    <t>Relevancia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,16 +1232,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1274,7 +1291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1306,9 +1323,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,6 +1375,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1515,1645 +1568,1654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A315" r:id="rId1"/>
+    <hyperlink ref="A315" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>323</v>
       </c>

--- a/Sonic.xlsx
+++ b/Sonic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\3ºSemestre\CieDadosDP\Projeto1\CDados2020_Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88330A21-7293-4D24-B272-1DB33C48F79B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60DA14-A645-4E1A-B7D9-FA0BBD8EA455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="511">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1733,12 +1733,15 @@
   <si>
     <t>Relevancia</t>
   </si>
+  <si>
+    <t>Relevancia_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1760,6 +1763,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1801,12 +1812,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2146,4105 +2158,5644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K253" sqref="K253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="98.109375" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>310</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>312</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>314</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>315</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>317</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>318</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>319</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>321</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>322</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>333</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>350</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>351</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>353</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>354</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>358</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>359</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>360</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>361</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>362</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>363</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>364</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>365</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>366</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>368</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>371</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>373</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>374</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>376</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>377</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
       <c r="B78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>379</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>380</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>381</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>383</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>384</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>385</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>386</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>388</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>389</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>390</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>391</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>392</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>393</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>394</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>400</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>403</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>404</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>405</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>406</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>407</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>408</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>409</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>410</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>411</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>412</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>414</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>415</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>416</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>417</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>418</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>419</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>422</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>423</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>424</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>425</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>426</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>428</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>429</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>430</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>433</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>434</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>435</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>436</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>437</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>438</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>439</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>440</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>441</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>442</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>443</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>444</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>445</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>446</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>447</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>448</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>449</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>450</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>451</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>452</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>453</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>454</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>455</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>456</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>457</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>458</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>459</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>460</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>461</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>462</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>463</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>464</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>465</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>466</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>467</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>468</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>469</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>470</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>471</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>472</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>473</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>474</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>475</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>476</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>477</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>478</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>479</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>480</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>481</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>482</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>483</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>484</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>485</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>486</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>487</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>488</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>489</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>490</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>491</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>492</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>493</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>494</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>495</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>496</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>497</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>498</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>499</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>500</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>501</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>502</v>
       </c>
       <c r="B202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>503</v>
       </c>
       <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>504</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>505</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>506</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>507</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>508</v>
       </c>
       <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
         <v>2</v>
       </c>
     </row>
